--- a/assignment5/table1.xlsx
+++ b/assignment5/table1.xlsx
@@ -1,28 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+  <si>
+    <t>With a initial assignment for one state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Without a initial assignment for one state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-tracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-tracking with forward check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-tracking with AC3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min-conflicts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1min 16.105s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1min 12.969s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.070s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.480s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.470s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can not find a answer in a limit time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Because of the run time of 10-states problem is very short, we run the program on 51-states problem.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,19 +110,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +415,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assignment5/table1.xlsx
+++ b/assignment5/table1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>With a initial assignment for one state</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0.070s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.480s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.470s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can not find a answer in a limit time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Because of the run time of 10-states problem is very short, we run the program on 51-states problem.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1min 16.105s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,23 +70,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.070s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.480s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.470s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can not find a answer in a limit time.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Because of the run time of 10-states problem is very short, we run the program on 51-states problem.</t>
+    <t>0.060s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +423,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -433,7 +437,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -460,16 +464,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -484,16 +488,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.06</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
